--- a/PPP/Testcase_1.xlsx
+++ b/PPP/Testcase_1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,13 +13,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>no</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -52,6 +60,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +357,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PPP/Testcase_1.xlsx
+++ b/PPP/Testcase_1.xlsx
@@ -14,16 +14,256 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>no</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>EID</t>
+  </si>
+  <si>
+    <t>WHEN</t>
+  </si>
+  <si>
+    <t>THEN</t>
+  </si>
+  <si>
+    <t>หน้า LOGIN</t>
+  </si>
+  <si>
+    <t>ไม่ใส่ Username และไม่ใส่ password</t>
+  </si>
+  <si>
+    <t>ทำการ login</t>
+  </si>
+  <si>
+    <t>ใส่ Username แต่ไม่ใส่ password</t>
+  </si>
+  <si>
+    <t>ไม่ใส่ Username แต่ใส่ password</t>
+  </si>
+  <si>
+    <t>ใส่ Username ถูก แต่ใส่ password ผิด</t>
+  </si>
+  <si>
+    <t>ใส่ Username ผิด แต่ใส่ password ถูก</t>
+  </si>
+  <si>
+    <t>ใส่ Username ผิด และ ใส่ password ผิด</t>
+  </si>
+  <si>
+    <t>ใส่ Username และ password ถูก</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE01 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE02 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE03 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE04 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE05 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE06 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE07 สำเร็จ</t>
+  </si>
+  <si>
+    <t>ถ้า นิสิตทำ CPE08 สำเร็จ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVEN </t>
+  </si>
+  <si>
+    <t>PID = PAGE ID</t>
+  </si>
+  <si>
+    <t>MID = MESSAGE ID</t>
+  </si>
+  <si>
+    <t>EID = ERROR ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login สำเร็จ </t>
+  </si>
+  <si>
+    <t>login ไม่สำเร็จ  จะแสดง Pop up (No Account)</t>
+  </si>
+  <si>
+    <t>login ไม่สำเร็จ จะแสดง Pop up (No Account)</t>
+  </si>
+  <si>
+    <t>หน้า เอกสาร</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้าแบบเสนอหัวข้อโครงงานวิศวกรรมคอมพิวเตอร์(CPE01)</t>
+  </si>
+  <si>
+    <t>เข้าหน้าเลือกแบบฟอร์ม CPE</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้าแบบบันทึกการดำเนินงานโครงงานวิศวกรรมคอมพิวเตอร์(CPE02)</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้าแบบขอสอบข้อเสนอโครงงานวิศวกรรมคอมพิวเตอร์(CPE03)</t>
+  </si>
+  <si>
+    <t>ยังไม่ผ่าน เงื่อนไข</t>
+  </si>
+  <si>
+    <t>หน้า CPE01</t>
+  </si>
+  <si>
+    <t>ถ้าอาจารย์ยังไม่ อนุมัติ CPE01</t>
+  </si>
+  <si>
+    <t>เมื่อกดปุ่ม CPE02</t>
+  </si>
+  <si>
+    <t>ไม่สามารถทำ CPE02 ได้</t>
+  </si>
+  <si>
+    <t>ถ้าไม่ได้กรอกชื่อโครงงานภาษาไทย</t>
+  </si>
+  <si>
+    <t>กด Save</t>
+  </si>
+  <si>
+    <t>จะแสดง ข้อความแจ้งเตือนเหนือช่องว่า "ยังไม่ได้กรอกชื่อโครงการภาษาไทย"</t>
+  </si>
+  <si>
+    <t>ถ้าไม่ได้กรอกชื่อโครงงานภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>จะแสดง ข้อความแจ้งเตือนเหนือช่องว่า "ยังไม่ได้กรอกชื่อโครงการภาษาอังกฤษ"</t>
+  </si>
+  <si>
+    <t>สมาชิกในกลุ่มมีกลุ่มอยู่แล้ว</t>
+  </si>
+  <si>
+    <t>จะแสดง ข้อความแจ้งเตือนเหนือช่องว่า "สมาชิกมีกลุ่มอยู่แล้ว"</t>
+  </si>
+  <si>
+    <t>ถ้ายังไม่ได้เลือกอาจารย์ที่ปรึกษา อาจารย์ที่ปรึกษาร่วมและกรรมการ</t>
+  </si>
+  <si>
+    <t>จะแสดง ข้อความแจ้งเตือนเหนือช่องว่า "กรุณาเลือกอาจารย์ที่ปรึกษา"</t>
+  </si>
+  <si>
+    <t>ถ้ายังไม่ได้เลือกอาจารย์ที่ปรึกษาร่วม</t>
+  </si>
+  <si>
+    <t>จะแสดง ข้อความแจ้งเตือนเหนือช่องว่า "กรุณาเลือกอาจารย์ที่ปรึกษาร่วม"</t>
+  </si>
+  <si>
+    <t>ถ้ายังไม่ได้เลือกรรมการ</t>
+  </si>
+  <si>
+    <t>จะแสดง ข้อความแจ้งเตือนเหนือช่องว่า "กรุณาเลือกกรรมการ"</t>
+  </si>
+  <si>
+    <t>ถ้ากรอกข้อมูลเสร็จทั้งหมดและถูกต้องตามเงื่อนไข</t>
+  </si>
+  <si>
+    <t>แสดง POP UP "บันทึกสำเร็จ"</t>
+  </si>
+  <si>
+    <t>ถ้านิสิตมีโครงงาน</t>
+  </si>
+  <si>
+    <t>เมื่อกดเข้ามาใน CPE01</t>
+  </si>
+  <si>
+    <t>จะมีข้อมูลที่ได้ทำการบันทึกล่าสุดแสดงไว้และจะใช้ปุ่ม  สำหรับการบันทึกข้อมูล</t>
+  </si>
+  <si>
+    <t>ถ้านิสิตทำการบันทึก CPE01 แล้ว และอาจารย์ไม่ได้อนุมัติ</t>
+  </si>
+  <si>
+    <t>กดเข้ามาใน CPE 01</t>
+  </si>
+  <si>
+    <t>เราสามารถกดแก้ไขข้อมูลและอัพเดทได้</t>
+  </si>
+  <si>
+    <t>ถ้านิสิตทำการบันทึก CPE01 แล้ว และอาจารย์อนุมัติ</t>
+  </si>
+  <si>
+    <t>นิสิตจะไม่สามารถแก้ไขข้อมูลใดๆได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เมื่อนิสิตทำการบันทึก CPE01 แล้ว </t>
+  </si>
+  <si>
+    <t>กดปุ่ม save</t>
+  </si>
+  <si>
+    <t>จะมีปุ่ม Leave Group ปรากฏออกมายังหน้า Home Student</t>
+  </si>
+  <si>
+    <t>ถ้านิสิตยังไม่มี CPE01 หรือ ถ้ามี  แต่อาจารย์ยังไม่ได้อนุมัติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เมื่อกดปุุ่ม CPE อื่น ๆ </t>
+  </si>
+  <si>
+    <t>จะไม่สามารถเข้าสู่ฟอร์ม CPE อื่น ๆ ได้</t>
+  </si>
+  <si>
+    <t>ถ้านิสิตมี CPE01 และอาจารย์ได้ได้อนุมัติ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เมื่อกดปุุ่ม CPE02 </t>
+  </si>
+  <si>
+    <t>จะสามารถเข้าสู่ฟอร์ม CPE02 และกรอกแบบบันทึกข้อมูลได้</t>
+  </si>
+  <si>
+    <t>เมื่อกดปุุ่ม CPE03</t>
+  </si>
+  <si>
+    <t>จะสามารถเข้าสู่ฟอร์ม CPE03 และกรอกแบบบันทึกข้อมูลได้</t>
+  </si>
+  <si>
+    <t>หน้าแรก</t>
+  </si>
+  <si>
+    <t>คลิกที่ "SENIOR PROJECT"</t>
+  </si>
+  <si>
+    <t>แทบ "SENIOR PROJECT"</t>
+  </si>
+  <si>
+    <t>จะเข้าสู่หน้าแรก</t>
+  </si>
+  <si>
+    <t>แทบ "About"</t>
+  </si>
+  <si>
+    <t>คลิกที่ "About"</t>
+  </si>
+  <si>
+    <t>เข้าสู่หน้า About Us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,16 +271,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -48,12 +335,182 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,30 +815,685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="38.375" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>1</v>
       </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>16</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>17</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>20</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>22</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>23</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>25</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>26</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>28</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>29</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>30</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>